--- a/data/trans_dic/P11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuya vivienda tiene &lt;=2 habitaciones</t>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>14,33%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>13,61%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>13,11%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>11,47%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,27%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>18,69%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 19,13</t>
+          <t>7,41; 18,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 12,16</t>
+          <t>4,1; 16,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 18,17</t>
+          <t>5,56; 19,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 34,29</t>
+          <t>6,31; 18,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 21,12</t>
+          <t>15,12; 33,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 27,73</t>
+          <t>10,97; 28,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 18,5</t>
+          <t>9,17; 21,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,68; 21,8</t>
+          <t>14,87; 27,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 18,46</t>
+          <t>8,23; 17,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 17,96</t>
+          <t>6,64; 16,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,23; 15,52</t>
+          <t>8,36; 22,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,21; 25,34</t>
+          <t>12,08; 26,87</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 17,85</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>10,18; 18,9</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,14; 16,02</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 15,41</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 25,71</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 24,55</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>36,71%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>27,99%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28,48%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>23,85%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>30,09%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>36,65%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,31; 35,43</t>
+          <t>18,85; 37,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,5; 36,07</t>
+          <t>20,41; 35,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 33,9</t>
+          <t>18,72; 34,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 38,56</t>
+          <t>13,39; 28,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,14; 38,41</t>
+          <t>20,5; 37,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,75; 35,39</t>
+          <t>27,65; 47,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,53; 37,71</t>
+          <t>22,76; 37,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,21; 39,82</t>
+          <t>23,63; 35,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 33,96</t>
+          <t>26,59; 38,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,74</t>
+          <t>21,71; 37,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 33,88</t>
+          <t>24,12; 40,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,99; 35,59</t>
+          <t>29,08; 44,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22,75; 34,7</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23,95; 33,19</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 34,45</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>18,43; 29,63</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>24,75; 36,3</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>30,54; 43,05</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>29,51%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20,13%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>20,77%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>22,23%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>25,73%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>20,09%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,69%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>25,94%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>24,76%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 27,78</t>
+          <t>14,76; 28,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,37; 30,29</t>
+          <t>18,4; 30,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,56; 33,63</t>
+          <t>20,44; 35,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 28,54</t>
+          <t>17,96; 32,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,6; 25,36</t>
+          <t>17,51; 29,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 22,68</t>
+          <t>18,31; 31,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 22,93</t>
+          <t>15,21; 25,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,31; 35,86</t>
+          <t>13,47; 21,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,13; 24,73</t>
+          <t>14,77; 22,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 24,81</t>
+          <t>15,78; 25,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,68; 27,26</t>
+          <t>23,83; 35,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,77; 30,06</t>
+          <t>20,03; 31,7</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 24,17</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 24,36</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,68; 27,25</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>17,51; 25,85</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 30,2</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>20,76; 30,04</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>26,66%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>19,13%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>27,31%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 20,71</t>
+          <t>10,32; 21,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 22,67</t>
+          <t>12,9; 23,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 19,38</t>
+          <t>10,83; 19,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,63; 34,85</t>
+          <t>13,25; 23,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,79; 24,2</t>
+          <t>20,03; 35,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 21,6</t>
+          <t>16,41; 28,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 18,06</t>
+          <t>14,08; 22,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,95; 34,74</t>
+          <t>12,87; 21,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,73; 20,75</t>
+          <t>11,03; 18,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,89; 20,29</t>
+          <t>10,24; 17,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 17,28</t>
+          <t>22,35; 33,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,07; 32,08</t>
+          <t>19,58; 30,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 20,05</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 20,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 17,31</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 19,03</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>22,69; 32,21</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 27,35</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>28,76%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>19,04%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>26,31%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>17,53%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>19,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>17,68%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>24,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>17,99%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>27,45%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>25,98%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 23,18</t>
+          <t>11,14; 24,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,1; 22,92</t>
+          <t>12,5; 23,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,64; 21,95</t>
+          <t>11,73; 21,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,0; 35,92</t>
+          <t>10,92; 21,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 24,98</t>
+          <t>22,29; 35,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,11; 27,6</t>
+          <t>21,29; 34,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 25,98</t>
+          <t>14,13; 25,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,38; 32,39</t>
+          <t>16,15; 26,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 22,23</t>
+          <t>14,56; 25,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,31; 23,05</t>
+          <t>14,09; 27,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,03</t>
+          <t>20,99; 33,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,13; 31,97</t>
+          <t>18,96; 30,96</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 21,76</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15,7; 23,52</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 22,08</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 22,94</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>23,21; 32,56</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>22,28; 30,71</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>23,05%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>30,99%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>19,79%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>17,24%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>18,46%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>18,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>21,57%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>23,07%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 25,24</t>
+          <t>11,0; 25,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,22; 27,35</t>
+          <t>14,0; 27,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,39; 33,4</t>
+          <t>17,27; 31,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,03; 39,05</t>
+          <t>16,49; 31,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,79; 26,23</t>
+          <t>23,07; 39,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,54; 22,44</t>
+          <t>22,19; 37,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 25,68</t>
+          <t>15,74; 28,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,93; 25,57</t>
+          <t>13,24; 22,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,66; 23,86</t>
+          <t>16,45; 29,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,32; 22,98</t>
+          <t>19,1; 34,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,11; 27,14</t>
+          <t>11,75; 26,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,14; 28,68</t>
+          <t>15,98; 29,78</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>15,1; 24,09</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>14,28; 22,88</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 27,99</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>19,82; 30,61</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 28,2</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>20,08; 31,04</t>
         </is>
       </c>
     </row>
@@ -1501,57 +1910,87 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>26,77%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>20,55%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>24,57%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>19,15%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25,51%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19,68%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>19,51%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>19,44%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>25,67%</t>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>25,88%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,17; 20,82</t>
+          <t>15,1; 20,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,42</t>
+          <t>16,79; 21,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,58</t>
+          <t>17,22; 22,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,89; 30,04</t>
+          <t>16,25; 21,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,06; 22,95</t>
+          <t>23,69; 29,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,19; 22,36</t>
+          <t>23,43; 29,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,24; 21,56</t>
+          <t>18,17; 22,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,53; 27,35</t>
+          <t>18,01; 22,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,46; 20,96</t>
+          <t>17,43; 21,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,99; 21,31</t>
+          <t>17,71; 22,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,88; 21,1</t>
+          <t>21,87; 27,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,55; 27,73</t>
+          <t>22,79; 28,26</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 21,37</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 21,22</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 21,44</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 21,41</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 27,73</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 27,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,68%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>59750</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40482</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>54187</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>51389</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9633</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7816</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>68045</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>102882</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65426</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>51325</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5359</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7276</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>127795</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>143364</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>119613</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>102714</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>14992</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>15092</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36637; 93887</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21410; 86842</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28359; 97505</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29060; 87287</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6241; 13777</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4660; 12160</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42968; 99978</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>76569; 139387</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42023; 89186</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31668; 80827</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3127; 8316</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4626; 10285</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>94423; 171986</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>105499; 195947</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>83098; 163570</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>67151; 144432</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11129; 20229</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>10765; 19819</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>149048</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>155432</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148835</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>115388</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14424</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17608</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>156738</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>150350</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>165341</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>142854</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14646</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16803</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>305785</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>305782</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>314176</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>258242</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>29069</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>34410</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>108086; 214182</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>115447; 201361</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>110781; 203101</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>77655; 167904</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10227; 18854</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13301; 22613</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>118146; 195885</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>120025; 180713</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>137539; 199677</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>109140; 186236</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11269; 18690</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13314; 20140</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>248546; 379023</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>257149; 356307</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>263897; 382094</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>199547; 320757</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>23910; 35070</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>28670; 40411</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>138698</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>162887</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>181375</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>155768</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13447</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14442</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>141857</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>126135</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>131044</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>143870</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15789</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14052</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>280555</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>289022</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>312419</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>299638</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>29236</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>28494</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>101315; 196479</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>124827; 205199</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>139027; 240807</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>119743; 216491</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10368; 17322</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11071; 18943</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>108013; 178657</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>96792; 156386</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>105429; 163424</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>112602; 183856</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12748; 19154</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10938; 17308</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>223797; 337538</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>241734; 340366</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>260341; 379766</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>241703; 356776</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>24496; 34036</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>23887; 34565</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>93868</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>112680</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>94006</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>114890</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15534</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12716</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>123768</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>111895</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>92970</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>92514</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14696</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13165</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>217636</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>224575</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>186976</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>207404</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>30230</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>25881</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66792; 140612</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83036; 149823</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>68630; 125883</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>86551; 152440</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11673; 20701</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9348; 16085</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>96501; 157386</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>86404; 142956</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>72217; 118632</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>67354; 117928</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11717; 17792</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10340; 16160</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>175112; 267287</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>181914; 271972</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>149650; 223084</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>168966; 249487</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>25118; 35660</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>21437; 30017</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>79219</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>84522</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>79856</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>77364</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12277</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12334</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>97272</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>105741</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>100956</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>103143</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12830</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11262</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>176491</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>190263</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>180812</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>180508</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>25107</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>23596</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>55162; 120636</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62039; 118403</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>57695; 107929</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>53825; 108209</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9514; 15276</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9452; 15397</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>71635; 129892</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>80924; 132723</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>74724; 128818</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>72855; 143577</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10238; 16264</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8801; 14370</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>141802; 218080</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>156625; 234619</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>144751; 221945</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>136564; 231632</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>21230; 29781</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>20232; 27891</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>86482</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>99568</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>122242</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>128718</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14420</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13196</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>151838</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>121920</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>146964</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>185236</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10902</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>14369</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>238320</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>221488</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>269206</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>313954</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>25321</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>27564</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>59077; 135465</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>72513; 141589</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>90438; 165138</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>92065; 176428</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10732; 18223</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9993; 16917</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>112418; 204249</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>91327; 157115</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>112825; 201973</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>134747; 243701</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7434; 16528</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10176; 18960</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>188885; 301359</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>172438; 276375</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>217498; 338556</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>250441; 386868</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>19398; 30960</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>21829; 33741</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>555.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>607064</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>655571</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>680501</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>643517</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>79734</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>78112</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>739517</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>718923</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>702701</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>718942</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>74222</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>76927</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1346582</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1374495</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1383202</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1362460</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>153956</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>155039</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>518574; 713578</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>574891; 741845</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>590750; 778986</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>554486; 737389</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>70556; 89228</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>69674; 87382</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>655098; 823125</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>649238; 800692</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>626875; 780213</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>632984; 816338</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>66063; 82256</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>68722; 85225</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1231560; 1504295</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1263427; 1491299</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1263729; 1506626</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1242755; 1495578</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>141497; 166331</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>142576; 167300</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
